--- a/biology/Médecine/Celui_qui_soigne_-_Muganga/Celui_qui_soigne_-_Muganga.xlsx
+++ b/biology/Médecine/Celui_qui_soigne_-_Muganga/Celui_qui_soigne_-_Muganga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celui qui soigne - Muganga est un film écrit et réalisé par Marie-Hélène Roux[1], il s'inspire de la vie du docteur Mukwege[2], et du docteur Guy-Bernard Cadière. Le film sortira en salle en 2024[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celui qui soigne - Muganga est un film écrit et réalisé par Marie-Hélène Roux, il s'inspire de la vie du docteur Mukwege, et du docteur Guy-Bernard Cadière. Le film sortira en salle en 2024,.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Celui qui soigne - Muganga
 Réalisation : Marie-Hélène Roux
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Isaach de Bankolé : Denis Mukwege
 Vincent Macaigne : Guy Cadière
@@ -631,7 +649,9 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est en tournage entre le Gabon, la Belgique et les États-Unis.
 </t>
